--- a/Data/Login_Details.xlsx
+++ b/Data/Login_Details.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satz\eclipse-workspace\Framework\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="6000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DD_ques1to3" sheetId="1" r:id="rId1"/>
     <sheet name="adactin_login_details" sheetId="2" r:id="rId2"/>
-    <sheet name="fb_login_details" sheetId="3" r:id="rId3"/>
-    <sheet name="naukri_reg_details" sheetId="4" r:id="rId4"/>
-    <sheet name="flipkart_det" sheetId="5" r:id="rId5"/>
+    <sheet name="demoqa_reg" sheetId="6" r:id="rId3"/>
+    <sheet name="fb_login_details" sheetId="3" r:id="rId4"/>
+    <sheet name="naukri_reg_details" sheetId="4" r:id="rId5"/>
+    <sheet name="flipkart_det" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>One</t>
   </si>
@@ -153,9 +149,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>Student Name</t>
   </si>
   <si>
@@ -219,13 +212,100 @@
     <t>08-22-2021</t>
   </si>
   <si>
-    <t>sdfgh</t>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Current Address</t>
+  </si>
+  <si>
+    <t>ganapathyraja@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Jaiselmer</t>
+  </si>
+  <si>
+    <t>21/3, Krishna Flats, Jain Street, Jaiselmer, 345001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State </t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>10 Aug 1994</t>
+  </si>
+  <si>
+    <t>lenin1904</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Hotel Sunshine</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Lenin</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Kullathupadai Street, Sankarapuram. PIN - 606401</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>leninmathiyarasi@gmail.com</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>kullathupathai street, Sankarapuram</t>
+  </si>
+  <si>
+    <t>11 Apr 1995</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
@@ -317,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,10 +426,18 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -452,7 +540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -629,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,21 +731,21 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.109375" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -721,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -729,7 +817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -748,22 +836,22 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" collapsed="1"/>
     <col min="5" max="6" width="12" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1" collapsed="1"/>
     <col min="9" max="10" width="12" collapsed="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -795,29 +883,29 @@
         <v>30</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -836,11 +924,11 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -849,22 +937,22 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="N2" s="11">
         <v>1234567890123450</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="Q2" s="1">
         <v>2022</v>
@@ -873,27 +961,63 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9943680807</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44482</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44483</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -913,7 +1037,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -933,7 +1057,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -953,7 +1077,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -973,7 +1097,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -993,7 +1117,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1024,43 +1148,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="11" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="46.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9876543210</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1994</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9943225555</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1995</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="Pgr.pgr@1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1069,24 +1348,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>35</v>
@@ -1101,12 +1425,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>12345567</v>
@@ -1126,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1134,13 +1458,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1149,12 +1473,12 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>8681822743</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1"/>
     </row>
